--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/87212562/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/87212562/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9934489130973816</v>
+        <v>0.9670128226280212</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9925282001495361</v>
+        <v>0.9640112519264221</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9141480922698975</v>
+        <v>0.6530289649963379</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9927720427513123</v>
+        <v>0.9644481539726257</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9932212829589844</v>
+        <v>0.966132640838623</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9940290451049805</v>
+        <v>0.9692310094833374</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9932147264480591</v>
+        <v>0.9661880731582642</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9940290451049805</v>
+        <v>0.9692310094833374</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9941058158874512</v>
+        <v>0.9696032404899597</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9943893551826477</v>
+        <v>0.9707203507423401</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9698532819747925</v>
+        <v>0.8497274518013</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937149882316589</v>
+        <v>0.9680105447769165</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.993172824382782</v>
+        <v>0.9665932059288025</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.992624819278717</v>
+        <v>0.9640647768974304</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9928105473518372</v>
+        <v>0.9646617770195007</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.629320502281189</v>
+        <v>0.2654804885387421</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9935036301612854</v>
+        <v>0.967351496219635</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9943232536315918</v>
+        <v>0.9703741669654846</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9931384921073914</v>
+        <v>0.9658854603767395</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9937363862991333</v>
+        <v>0.968106746673584</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9935038685798645</v>
+        <v>0.9672043919563293</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9937964677810669</v>
+        <v>0.9682657122612</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9267734885215759</v>
+        <v>0.6768049597740173</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5196318626403809</v>
+        <v>0.2352960705757141</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9935046434402466</v>
+        <v>0.9671617746353149</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9932564496994019</v>
+        <v>0.9662482738494873</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9927777647972107</v>
+        <v>0.9645348787307739</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9919256567955017</v>
+        <v>0.9615128040313721</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.993296205997467</v>
+        <v>0.96650230884552</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9690844416618347</v>
+        <v>0.8766012191772461</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9711805582046509</v>
+        <v>0.8531758189201355</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9661969542503357</v>
+        <v>0.8382630944252014</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9932692646980286</v>
+        <v>0.9662644267082214</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9682092070579529</v>
+        <v>0.844977855682373</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.994071900844574</v>
+        <v>0.9694080948829651</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9018393158912659</v>
+        <v>0.712601363658905</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9691474437713623</v>
+        <v>0.8780477046966553</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9940802454948425</v>
+        <v>0.9694314002990723</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9643460512161255</v>
+        <v>0.8294364213943481</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9659115672111511</v>
+        <v>0.8686715960502625</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9619367718696594</v>
+        <v>0.8257793784141541</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9711397290229797</v>
+        <v>0.8843718767166138</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9669567346572876</v>
+        <v>0.8719817996025085</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6370445489883423</v>
+        <v>0.4227474331855774</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9660156965255737</v>
+        <v>0.869115948677063</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9943787455558777</v>
+        <v>0.9706319570541382</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9594961404800415</v>
+        <v>0.8512786626815796</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9398146271705627</v>
+        <v>0.8170509934425354</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9918993711471558</v>
+        <v>0.9613831043243408</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9594961404800415</v>
+        <v>0.8512786626815796</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9592737555503845</v>
+        <v>0.8515827655792236</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9931888580322266</v>
+        <v>0.9660187959671021</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9941468238830566</v>
+        <v>0.9696477651596069</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9943681359291077</v>
+        <v>0.9705404043197632</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9672767519950867</v>
+        <v>0.8409126400947571</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9943872690200806</v>
+        <v>0.9707397818565369</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9939622282981873</v>
+        <v>0.9689120650291443</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9940271377563477</v>
+        <v>0.9693297743797302</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9939196109771729</v>
+        <v>0.9688373208045959</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9629017114639282</v>
+        <v>0.8281241059303284</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7386277318000793</v>
+        <v>0.5164954662322998</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9666205048561096</v>
+        <v>0.8397882580757141</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9666205048561096</v>
+        <v>0.8397882580757141</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9625720977783203</v>
+        <v>0.8283265829086304</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9666205048561096</v>
+        <v>0.8397882580757141</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9434800148010254</v>
+        <v>0.5342392325401306</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9931837916374207</v>
+        <v>0.9660488367080688</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.964593231678009</v>
+        <v>0.8298027515411377</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.990378737449646</v>
+        <v>0.9563159942626953</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9685873985290527</v>
+        <v>0.8464428782463074</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9937852621078491</v>
+        <v>0.9682506322860718</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9927547574043274</v>
+        <v>0.9643652439117432</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9685873985290527</v>
+        <v>0.8464428782463074</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9919117093086243</v>
+        <v>0.9615008234977722</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9685873985290527</v>
+        <v>0.8464428782463074</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9935691356658936</v>
+        <v>0.9674307107925415</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9688200950622559</v>
+        <v>0.8475151062011719</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.991999089717865</v>
+        <v>0.9616656899452209</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9688200950622559</v>
+        <v>0.8475151062011719</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9919633865356445</v>
+        <v>0.9615557789802551</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9919633865356445</v>
+        <v>0.9615557789802551</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.994432270526886</v>
+        <v>0.970876157283783</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9699969291687012</v>
+        <v>0.8502503037452698</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9934752583503723</v>
+        <v>0.9671347737312317</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9688276648521423</v>
+        <v>0.8471611738204956</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9919289350509644</v>
+        <v>0.9615060091018677</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9937386512756348</v>
+        <v>0.9680920839309692</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9937293529510498</v>
+        <v>0.9680793285369873</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9937425255775452</v>
+        <v>0.9681081771850586</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9937220215797424</v>
+        <v>0.968075692653656</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9937250018119812</v>
+        <v>0.9680606126785278</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9937310814857483</v>
+        <v>0.9680418372154236</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9942839741706848</v>
+        <v>0.9702842235565186</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6307942271232605</v>
+        <v>0.3687745332717896</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.994304358959198</v>
+        <v>0.9703220725059509</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9430314302444458</v>
+        <v>0.7843775153160095</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9932218790054321</v>
+        <v>0.9661660194396973</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9934604167938232</v>
+        <v>0.9671010971069336</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8404105305671692</v>
+        <v>0.5325899720191956</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.963981568813324</v>
+        <v>0.8588895797729492</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9927402138710022</v>
+        <v>0.9643718600273132</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9439118504524231</v>
+        <v>0.5332560539245605</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9931918978691101</v>
+        <v>0.9661417603492737</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9671944379806519</v>
+        <v>0.8705160021781921</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9341303110122681</v>
+        <v>0.6873779296875</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9935837388038635</v>
+        <v>0.9674972891807556</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9692069292068481</v>
+        <v>0.877044141292572</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9661974906921387</v>
+        <v>0.8699967861175537</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9705145955085754</v>
+        <v>0.8518791198730469</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9939312934875488</v>
+        <v>0.9689004421234131</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9701139330863953</v>
+        <v>0.8490531444549561</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.991807758808136</v>
+        <v>0.9610577821731567</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9926730990409851</v>
+        <v>0.9640233516693115</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8113728761672974</v>
+        <v>0.5320330262184143</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8965839743614197</v>
+        <v>0.7082748413085938</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9432936906814575</v>
+        <v>0.5340206623077393</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.994290828704834</v>
+        <v>0.9702678918838501</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9432936906814575</v>
+        <v>0.5340206623077393</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.994290828704834</v>
+        <v>0.9702678918838501</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9432936906814575</v>
+        <v>0.5340206623077393</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9942696094512939</v>
+        <v>0.9702045917510986</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7705350518226624</v>
+        <v>0.5077652931213379</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9903298616409302</v>
+        <v>0.957284688949585</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7652589082717896</v>
+        <v>0.4510363638401031</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9927640557289124</v>
+        <v>0.9643861651420593</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4645723402500153</v>
+        <v>0.2831911146640778</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9926884174346924</v>
+        <v>0.9642341732978821</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9938035011291504</v>
+        <v>0.9683201909065247</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9932423233985901</v>
+        <v>0.966265082359314</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.990395724773407</v>
+        <v>0.9568483233451843</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9927846193313599</v>
+        <v>0.9645252227783203</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.992738664150238</v>
+        <v>0.9644288420677185</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9927836656570435</v>
+        <v>0.9645917415618896</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9920669794082642</v>
+        <v>0.9618886709213257</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9937567710876465</v>
+        <v>0.9682381153106689</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9663833975791931</v>
+        <v>0.8400170207023621</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9939144253730774</v>
+        <v>0.9687361717224121</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9663833975791931</v>
+        <v>0.8400170207023621</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9919230341911316</v>
+        <v>0.9614047408103943</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9434800148010254</v>
+        <v>0.5342392325401306</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9934859871864319</v>
+        <v>0.9671629071235657</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9668912291526794</v>
+        <v>0.8416677713394165</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8754833936691284</v>
+        <v>0.4141108691692352</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7881095409393311</v>
+        <v>0.5027868747711182</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9941839575767517</v>
+        <v>0.9698953032493591</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9334883093833923</v>
+        <v>0.6857804656028748</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9937794804573059</v>
+        <v>0.9682860970497131</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9340477585792542</v>
+        <v>0.6885475516319275</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9939265847206116</v>
+        <v>0.9688506126403809</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9347043633460999</v>
+        <v>0.689612090587616</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9939940571784973</v>
+        <v>0.9691200256347656</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.960212767124176</v>
+        <v>0.8202583193778992</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9934806823730469</v>
+        <v>0.9671246409416199</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9928682446479797</v>
+        <v>0.9661881923675537</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9927767515182495</v>
+        <v>0.9645410776138306</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9656240940093994</v>
+        <v>0.837303102016449</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9942692518234253</v>
+        <v>0.9702310562133789</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9585874080657959</v>
+        <v>0.8146848082542419</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9634024500846863</v>
+        <v>0.8630601167678833</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9708402156829834</v>
+        <v>0.8516829013824463</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9634024500846863</v>
+        <v>0.8630601167678833</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9692487120628357</v>
+        <v>0.8471450209617615</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9919435977935791</v>
+        <v>0.9615292549133301</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9927305579185486</v>
+        <v>0.9644201993942261</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9927695393562317</v>
+        <v>0.9645078182220459</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9927305579185486</v>
+        <v>0.9644201993942261</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9927305579185486</v>
+        <v>0.9644201993942261</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9927695393562317</v>
+        <v>0.9645078182220459</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9935194849967957</v>
+        <v>0.9673236012458801</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.99049311876297</v>
+        <v>0.956698477268219</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9927322268486023</v>
+        <v>0.9643954038619995</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9935815334320068</v>
+        <v>0.9675814509391785</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9931760430335999</v>
+        <v>0.9660205841064453</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9451542496681213</v>
+        <v>0.5375742316246033</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9939683675765991</v>
+        <v>0.9689991474151611</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9939502477645874</v>
+        <v>0.9689212441444397</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.994024932384491</v>
+        <v>0.9692304134368896</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9940181970596313</v>
+        <v>0.969221830368042</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9935131669044495</v>
+        <v>0.9672663807868958</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9936710596084595</v>
+        <v>0.9678252339363098</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9936659932136536</v>
+        <v>0.9678322672843933</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6396968960762024</v>
+        <v>0.3550329506397247</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.993266224861145</v>
+        <v>0.9662811160087585</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9927976727485657</v>
+        <v>0.9645865559577942</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9391617774963379</v>
+        <v>0.526835024356842</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9696229100227356</v>
+        <v>0.8787931799888611</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9939887523651123</v>
+        <v>0.9690877795219421</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9940447211265564</v>
+        <v>0.9693461060523987</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9941397905349731</v>
+        <v>0.9697535634040833</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9934695959091187</v>
+        <v>0.9670975208282471</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9176867008209229</v>
+        <v>0.7226048707962036</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9934818148612976</v>
+        <v>0.9671328067779541</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9935959577560425</v>
+        <v>0.9676689505577087</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9927958846092224</v>
+        <v>0.9645881056785583</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9633382558822632</v>
+        <v>0.8630301952362061</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9942187070846558</v>
+        <v>0.969961941242218</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9927020072937012</v>
+        <v>0.9642184376716614</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6446555852890015</v>
+        <v>0.3714235424995422</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9903990626335144</v>
+        <v>0.9564855694770813</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.573907196521759</v>
+        <v>0.2518118321895599</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9927008152008057</v>
+        <v>0.964278519153595</v>
       </c>
     </row>
   </sheetData>
